--- a/out_3.xlsx
+++ b/out_3.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,421 +483,771 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>195.524</v>
+        <v>158.823</v>
       </c>
       <c r="C8">
-        <v>104.305</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D8">
-        <v>160.3333333333333</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>197.538</v>
+        <v>163.031</v>
       </c>
       <c r="C9">
-        <v>106.533</v>
+        <v>100.299</v>
       </c>
       <c r="D9">
-        <v>160.6666666666667</v>
+        <v>152.3333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>197.03</v>
+        <v>168.358</v>
       </c>
       <c r="C10">
-        <v>108.18</v>
+        <v>101.433</v>
       </c>
       <c r="D10">
-        <v>161</v>
+        <v>152.6666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>194.575</v>
+        <v>169.252</v>
       </c>
       <c r="C11">
-        <v>102.435</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D11">
-        <v>161.3333333333333</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>197.248</v>
+        <v>201.534</v>
       </c>
       <c r="C12">
-        <v>102.034</v>
+        <v>111.604</v>
       </c>
       <c r="D12">
-        <v>161.6666666666667</v>
+        <v>153.3333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>195.879</v>
+        <v>165.107</v>
       </c>
       <c r="C13">
-        <v>107.256</v>
+        <v>99.98099999999999</v>
       </c>
       <c r="D13">
-        <v>162</v>
+        <v>153.6666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>197.452</v>
+        <v>202.19</v>
       </c>
       <c r="C14">
-        <v>106.607</v>
+        <v>108.59</v>
       </c>
       <c r="D14">
-        <v>162.3333333333333</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>198.399</v>
+        <v>197.462</v>
       </c>
       <c r="C15">
-        <v>110.064</v>
+        <v>104.788</v>
       </c>
       <c r="D15">
-        <v>162.6666666666667</v>
+        <v>154.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>194.683</v>
+        <v>186.974</v>
       </c>
       <c r="C16">
-        <v>115.929</v>
+        <v>101.583</v>
       </c>
       <c r="D16">
-        <v>163</v>
+        <v>154.6666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>199.806</v>
+        <v>184.785</v>
       </c>
       <c r="C17">
-        <v>104.145</v>
+        <v>103.096</v>
       </c>
       <c r="D17">
-        <v>163.3333333333333</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>202.594</v>
+        <v>218.546</v>
       </c>
       <c r="C18">
-        <v>105.443</v>
+        <v>110.176</v>
       </c>
       <c r="D18">
-        <v>163.6666666666667</v>
+        <v>155.3333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>198.758</v>
+        <v>213.435</v>
       </c>
       <c r="C19">
-        <v>103.796</v>
+        <v>109.607</v>
       </c>
       <c r="D19">
-        <v>164</v>
+        <v>155.6666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>206.98</v>
+        <v>216.573</v>
       </c>
       <c r="C20">
-        <v>107.959</v>
+        <v>108.937</v>
       </c>
       <c r="D20">
-        <v>164.3333333333333</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>210.381</v>
+        <v>214.434</v>
       </c>
       <c r="C21">
-        <v>108.033</v>
+        <v>111.977</v>
       </c>
       <c r="D21">
-        <v>164.6666666666667</v>
+        <v>156.3333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>195.838</v>
+        <v>223.806</v>
       </c>
       <c r="C22">
-        <v>104.704</v>
+        <v>115.364</v>
       </c>
       <c r="D22">
-        <v>165</v>
+        <v>156.6666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>207.7</v>
+        <v>205.15</v>
       </c>
       <c r="C23">
-        <v>108.717</v>
+        <v>105.755</v>
       </c>
       <c r="D23">
-        <v>165.3333333333333</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>204.561</v>
+        <v>221.441</v>
       </c>
       <c r="C24">
-        <v>108.591</v>
+        <v>106.266</v>
       </c>
       <c r="D24">
-        <v>165.6666666666667</v>
+        <v>157.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>214.192</v>
+        <v>217.847</v>
       </c>
       <c r="C25">
-        <v>105.974</v>
+        <v>110.015</v>
       </c>
       <c r="D25">
-        <v>166</v>
+        <v>157.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>205.943</v>
+        <v>185.375</v>
       </c>
       <c r="C26">
-        <v>108.475</v>
+        <v>101.358</v>
       </c>
       <c r="D26">
-        <v>166.3333333333333</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>204.608</v>
+        <v>188.871</v>
       </c>
       <c r="C27">
-        <v>110.698</v>
+        <v>107.181</v>
       </c>
       <c r="D27">
-        <v>166.6666666666667</v>
+        <v>158.3333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>213.298</v>
+        <v>195.081</v>
       </c>
       <c r="C28">
-        <v>110.615</v>
+        <v>103.069</v>
       </c>
       <c r="D28">
-        <v>167</v>
+        <v>158.6666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>206.547</v>
+        <v>202.812</v>
       </c>
       <c r="C29">
-        <v>104.16</v>
+        <v>110.418</v>
       </c>
       <c r="D29">
-        <v>167.3333333333333</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>206.866</v>
+        <v>215.424</v>
       </c>
       <c r="C30">
-        <v>108.559</v>
+        <v>108.904</v>
       </c>
       <c r="D30">
-        <v>167.6666666666667</v>
+        <v>159.3333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>210.224</v>
+        <v>192.29</v>
       </c>
       <c r="C31">
-        <v>107.245</v>
+        <v>103.271</v>
       </c>
       <c r="D31">
-        <v>168</v>
+        <v>159.6666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>205.451</v>
+        <v>189.572</v>
       </c>
       <c r="C32">
-        <v>113.47</v>
+        <v>100.884</v>
       </c>
       <c r="D32">
-        <v>168.3333333333333</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>206.065</v>
+        <v>195.524</v>
       </c>
       <c r="C33">
-        <v>107.846</v>
+        <v>104.305</v>
       </c>
       <c r="D33">
-        <v>168.6666666666667</v>
+        <v>160.3333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>212.693</v>
+        <v>197.538</v>
       </c>
       <c r="C34">
-        <v>108.555</v>
+        <v>106.533</v>
       </c>
       <c r="D34">
-        <v>169</v>
+        <v>160.6666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>216.226</v>
+        <v>197.03</v>
       </c>
       <c r="C35">
-        <v>109.244</v>
+        <v>108.18</v>
       </c>
       <c r="D35">
-        <v>169.3333333333333</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>213.946</v>
+        <v>194.575</v>
       </c>
       <c r="C36">
-        <v>110.519</v>
+        <v>102.435</v>
       </c>
       <c r="D36">
-        <v>169.6666666666667</v>
+        <v>161.3333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>197.248</v>
+      </c>
+      <c r="C37">
+        <v>102.034</v>
+      </c>
+      <c r="D37">
+        <v>161.6666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>195.879</v>
+      </c>
+      <c r="C38">
+        <v>107.256</v>
+      </c>
+      <c r="D38">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>197.452</v>
+      </c>
+      <c r="C39">
+        <v>106.607</v>
+      </c>
+      <c r="D39">
+        <v>162.3333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>198.399</v>
+      </c>
+      <c r="C40">
+        <v>110.064</v>
+      </c>
+      <c r="D40">
+        <v>162.6666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>194.683</v>
+      </c>
+      <c r="C41">
+        <v>115.929</v>
+      </c>
+      <c r="D41">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>199.806</v>
+      </c>
+      <c r="C42">
+        <v>104.145</v>
+      </c>
+      <c r="D42">
+        <v>163.3333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>202.594</v>
+      </c>
+      <c r="C43">
+        <v>105.443</v>
+      </c>
+      <c r="D43">
+        <v>163.6666666666667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>198.758</v>
+      </c>
+      <c r="C44">
+        <v>103.796</v>
+      </c>
+      <c r="D44">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>206.98</v>
+      </c>
+      <c r="C45">
+        <v>107.959</v>
+      </c>
+      <c r="D45">
+        <v>164.3333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>210.381</v>
+      </c>
+      <c r="C46">
+        <v>108.033</v>
+      </c>
+      <c r="D46">
+        <v>164.6666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>195.838</v>
+      </c>
+      <c r="C47">
+        <v>104.704</v>
+      </c>
+      <c r="D47">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>207.7</v>
+      </c>
+      <c r="C48">
+        <v>108.717</v>
+      </c>
+      <c r="D48">
+        <v>165.3333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>204.561</v>
+      </c>
+      <c r="C49">
+        <v>108.591</v>
+      </c>
+      <c r="D49">
+        <v>165.6666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>214.192</v>
+      </c>
+      <c r="C50">
+        <v>105.974</v>
+      </c>
+      <c r="D50">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>205.943</v>
+      </c>
+      <c r="C51">
+        <v>108.475</v>
+      </c>
+      <c r="D51">
+        <v>166.3333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>204.608</v>
+      </c>
+      <c r="C52">
+        <v>110.698</v>
+      </c>
+      <c r="D52">
+        <v>166.6666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>213.298</v>
+      </c>
+      <c r="C53">
+        <v>110.615</v>
+      </c>
+      <c r="D53">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>206.547</v>
+      </c>
+      <c r="C54">
+        <v>104.16</v>
+      </c>
+      <c r="D54">
+        <v>167.3333333333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>206.866</v>
+      </c>
+      <c r="C55">
+        <v>108.559</v>
+      </c>
+      <c r="D55">
+        <v>167.6666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>210.224</v>
+      </c>
+      <c r="C56">
+        <v>107.245</v>
+      </c>
+      <c r="D56">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>205.451</v>
+      </c>
+      <c r="C57">
+        <v>113.47</v>
+      </c>
+      <c r="D57">
+        <v>168.3333333333333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>206.065</v>
+      </c>
+      <c r="C58">
+        <v>107.846</v>
+      </c>
+      <c r="D58">
+        <v>168.6666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>212.693</v>
+      </c>
+      <c r="C59">
+        <v>108.555</v>
+      </c>
+      <c r="D59">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>216.226</v>
+      </c>
+      <c r="C60">
+        <v>109.244</v>
+      </c>
+      <c r="D60">
+        <v>169.3333333333333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>213.946</v>
+      </c>
+      <c r="C61">
+        <v>110.519</v>
+      </c>
+      <c r="D61">
+        <v>169.6666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B37">
+      <c r="B62">
         <v>215.844</v>
       </c>
-      <c r="C37">
+      <c r="C62">
         <v>112.406</v>
       </c>
-      <c r="D37">
+      <c r="D62">
         <v>170</v>
       </c>
     </row>
